--- a/Grades/Exam Grades.xlsx
+++ b/Grades/Exam Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE5D14C-E157-4342-B68D-9E491FEDCB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C3F9AF-865C-454E-9E45-26C8E8EB2F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11380" yWindow="1420" windowWidth="26100" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
@@ -309,7 +309,168 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -653,7 +814,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,6 +1340,22 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D21">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+      <formula>37</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>34</formula>
+      <formula>36.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>28</formula>
+      <formula>33.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+      <formula>28</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Grades/Exam Grades.xlsx
+++ b/Grades/Exam Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C3F9AF-865C-454E-9E45-26C8E8EB2F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C16FAE-E83A-314A-9CC7-18E025EE5625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11380" yWindow="1420" windowWidth="26100" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>reed_id</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Calvin</t>
   </si>
   <si>
-    <t>Berlau</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
     <t>Blair</t>
   </si>
   <si>
@@ -178,60 +172,15 @@
     <t>Arai</t>
   </si>
   <si>
-    <t>S64687</t>
-  </si>
-  <si>
-    <t>Zoll</t>
-  </si>
-  <si>
-    <t>Ingrid</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Column9</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Column12</t>
-  </si>
-  <si>
-    <t>Column13</t>
-  </si>
-  <si>
     <t>Midterm_1</t>
   </si>
   <si>
     <t>Midterm_1_pct</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -254,9 +203,6 @@
   </si>
   <si>
     <t>Number Zero</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -309,7 +255,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -350,126 +296,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -484,12 +310,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:Q21" totalsRowShown="0">
-  <autoFilter ref="A1:Q21" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q21">
-    <sortCondition ref="C1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition ref="C1:C19"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
     <tableColumn id="2" xr3:uid="{7146B570-825A-7D4C-890F-90E736404710}" name="last_name"/>
     <tableColumn id="3" xr3:uid="{D61C3733-DDE0-7A4F-8F95-3BE6FC83489B}" name="first_name"/>
@@ -497,18 +323,6 @@
     <tableColumn id="5" xr3:uid="{A435395F-A4DA-0145-9160-A4A3311B3E8F}" name="Midterm_1_pct" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2[[#This Row],[Midterm_1]]/40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{21C90B51-C51E-7741-B6FE-1005783D12DE}" name="Column1"/>
-    <tableColumn id="8" xr3:uid="{7C539A1E-3F4C-7045-B1EB-07944188AA66}" name="Column2"/>
-    <tableColumn id="9" xr3:uid="{9D6CF025-397E-6A46-B1AD-953EBEE70E4C}" name="Column3"/>
-    <tableColumn id="10" xr3:uid="{E5A2A72B-C7D7-B24A-8379-2720F69FE7ED}" name="Column4"/>
-    <tableColumn id="11" xr3:uid="{ABD79534-5A14-414D-B5C4-FBD512EF0662}" name="Column5"/>
-    <tableColumn id="12" xr3:uid="{9624906C-F40D-9249-96C8-6A8C35BE8C8C}" name="Column7"/>
-    <tableColumn id="13" xr3:uid="{094B0FE9-E2A3-E340-9F10-A74B106F9240}" name="Column8"/>
-    <tableColumn id="14" xr3:uid="{61F04656-8D3A-3D4B-9D3B-BC28BC9454DF}" name="Column9"/>
-    <tableColumn id="15" xr3:uid="{821E68D5-C1D2-0843-A7E0-5725A80DC0AA}" name="Column10"/>
-    <tableColumn id="16" xr3:uid="{837759CC-C66A-7545-9181-808AA9E515E8}" name="Column11"/>
-    <tableColumn id="17" xr3:uid="{5CEBC01F-BB5C-DC4F-8556-2D49D17A1515}" name="Column12"/>
-    <tableColumn id="18" xr3:uid="{5287C0EB-DD50-0042-95DC-6FEF77731CA1}" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -811,20 +625,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="14" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,274 +645,240 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>20005154</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>28</v>
       </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20014500</v>
+      </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>26.5</v>
+      </c>
+      <c r="E3" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.66249999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20007907</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>37.5</v>
+      </c>
+      <c r="E4" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20009766</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>34.5</v>
+      </c>
+      <c r="E5" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.86250000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20005442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>38.5</v>
+      </c>
+      <c r="E7" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>39</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E8" s="2">
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>20014500</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4">
-        <v>26.5</v>
-      </c>
-      <c r="E4" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.66249999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>20007907</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20016821</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20008352</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <f>Table2[[#This Row],[Midterm_1]]/40</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="D5">
-        <v>37.5</v>
-      </c>
-      <c r="E5" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20009766</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>34.5</v>
-      </c>
-      <c r="E6" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.86250000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20005442</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>38.5</v>
-      </c>
-      <c r="E8" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
         <v>39</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E13" s="2">
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20010417</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>20</v>
-      </c>
-      <c r="D12">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20016821</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>20008352</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
       </c>
       <c r="D14">
         <v>39</v>
@@ -1109,250 +888,214 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20016819</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="E15" s="2">
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20010417</v>
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2">
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.97499999999999998</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20016819</v>
+        <v>20010981</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2">
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.91249999999999998</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2</v>
+      <c r="A18">
+        <v>20013614</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>34.5</v>
       </c>
       <c r="E18" s="2">
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.77500000000000002</v>
+        <v>0.86250000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>20010981</v>
+      <c r="A19" t="s">
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2">
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20013614</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>34.5</v>
-      </c>
-      <c r="E20" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.86250000000000004</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <f>AVERAGE(Table2[[#All],[Midterm_1]])</f>
+        <v>36.444444444444443</v>
       </c>
       <c r="E21" s="2">
-        <f>Table2[[#This Row],[Midterm_1]]/40</f>
-        <v>0.92500000000000004</v>
+        <f>AVERAGE(Table2[[#All],[Midterm_1_pct]])</f>
+        <v>0.91111111111111098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <f>STDEV(Table2[Midterm_1])</f>
+        <v>3.3072508971549195</v>
+      </c>
+      <c r="E22" s="2">
+        <f>STDEV(Table2[Midterm_1_pct])</f>
+        <v>8.2681272428872993E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <f>AVERAGE(Table2[[#All],[Midterm_1]])</f>
-        <v>36.444444444444443</v>
+        <f>MAX(Table2[Midterm_1])</f>
+        <v>39</v>
       </c>
       <c r="E23" s="2">
-        <f>AVERAGE(Table2[[#All],[Midterm_1_pct]])</f>
-        <v>0.91111111111111098</v>
+        <f>MAX(Table2[Midterm_1_pct])</f>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <f>STDEV(Table2[Midterm_1])</f>
-        <v>3.3072508971549195</v>
+        <f>_xlfn.QUARTILE.INC(Table2[Midterm_1],3)</f>
+        <v>39</v>
       </c>
       <c r="E24" s="2">
-        <f>STDEV(Table2[Midterm_1_pct])</f>
-        <v>8.2681272428872993E-2</v>
+        <f>_xlfn.QUARTILE.INC(Table2[Midterm_1_pct],3)</f>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <f>MAX(Table2[Midterm_1])</f>
-        <v>39</v>
+        <f>MEDIAN(Table2[Midterm_1])</f>
+        <v>37.25</v>
       </c>
       <c r="E25" s="2">
-        <f>MAX(Table2[Midterm_1_pct])</f>
-        <v>0.97499999999999998</v>
+        <f>MEDIAN(Table2[Midterm_1_pct])</f>
+        <v>0.93125000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <f>_xlfn.QUARTILE.INC(Table2[Midterm_1],3)</f>
-        <v>39</v>
+        <f>_xlfn.QUARTILE.INC(Table2[Midterm_1],1)</f>
+        <v>35.25</v>
       </c>
       <c r="E26" s="2">
-        <f>_xlfn.QUARTILE.INC(Table2[Midterm_1_pct],3)</f>
-        <v>0.97499999999999998</v>
+        <f>_xlfn.QUARTILE.INC(Table2[Midterm_1_pct],1)</f>
+        <v>0.88124999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <f>MEDIAN(Table2[Midterm_1])</f>
-        <v>37.25</v>
+        <f>MIN(Table2[Midterm_1])</f>
+        <v>26.5</v>
       </c>
       <c r="E27" s="2">
-        <f>MEDIAN(Table2[Midterm_1_pct])</f>
-        <v>0.93125000000000002</v>
+        <f>MIN(Table2[Midterm_1_pct])</f>
+        <v>0.66249999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D28">
-        <f>_xlfn.QUARTILE.INC(Table2[Midterm_1],1)</f>
-        <v>35.25</v>
-      </c>
-      <c r="E28" s="2">
-        <f>_xlfn.QUARTILE.INC(Table2[Midterm_1_pct],1)</f>
-        <v>0.88124999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29">
-        <f>MIN(Table2[Midterm_1])</f>
-        <v>26.5</v>
-      </c>
-      <c r="E29" s="2">
-        <f>MIN(Table2[Midterm_1_pct])</f>
-        <v>0.66249999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30">
         <f>COUNTIF(Table2[Midterm_1],"=NA")</f>
-        <v>2</v>
-      </c>
-      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <f>COUNTIF(Table2[Midterm_1_pct],"=NA")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D21">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D2:D19">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
       <formula>37</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>34</formula>
       <formula>36.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>28</formula>
       <formula>33.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Grades/Exam Grades.xlsx
+++ b/Grades/Exam Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C16FAE-E83A-314A-9CC7-18E025EE5625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B8CDC9-CD34-431D-8EC1-4CD92F22D7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="1420" windowWidth="26100" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
+    <workbookView xWindow="4785" yWindow="225" windowWidth="23745" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>reed_id</t>
   </si>
@@ -203,13 +205,22 @@
   </si>
   <si>
     <t>Number Zero</t>
+  </si>
+  <si>
+    <t>Midterm_2</t>
+  </si>
+  <si>
+    <t>Midterm_2_pct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +231,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,16 +263,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -310,18 +352,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E19" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:G19" totalsRowShown="0">
+  <autoFilter ref="A1:G19" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
     <sortCondition ref="C1:C19"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
     <tableColumn id="2" xr3:uid="{7146B570-825A-7D4C-890F-90E736404710}" name="last_name"/>
     <tableColumn id="3" xr3:uid="{D61C3733-DDE0-7A4F-8F95-3BE6FC83489B}" name="first_name"/>
     <tableColumn id="4" xr3:uid="{C524DDEB-2F3A-3448-9786-159474E2DF2D}" name="Midterm_1"/>
     <tableColumn id="5" xr3:uid="{A435395F-A4DA-0145-9160-A4A3311B3E8F}" name="Midterm_1_pct" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2[[#This Row],[Midterm_1]]/40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9C711AC8-5787-4B9B-BED7-32D1D807C96B}" name="Midterm_2" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{712BDCE5-7056-42A5-8A55-E2FA1A67C2D3}" name="Midterm_2_pct" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table2[[#This Row],[Midterm_2]]/100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -625,19 +671,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,8 +699,14 @@
       <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -671,8 +723,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="G2" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20014500</v>
       </c>
@@ -689,8 +748,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.66249999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20007907</v>
       </c>
@@ -707,8 +773,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="4">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20009766</v>
       </c>
@@ -725,8 +798,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.86250000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="4">
+        <v>78</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20005442</v>
       </c>
@@ -743,8 +823,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="4">
+        <v>94</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -761,8 +848,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.96250000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -779,8 +873,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="4">
+        <v>95</v>
+      </c>
+      <c r="G8" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -797,8 +898,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="4">
+        <v>97</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -815,8 +923,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="4">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20016821</v>
       </c>
@@ -833,8 +948,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20008352</v>
       </c>
@@ -851,8 +973,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="4">
+        <v>96</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -869,8 +998,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="4">
+        <v>85</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20010417</v>
       </c>
@@ -887,8 +1023,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="4">
+        <v>99</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20016819</v>
       </c>
@@ -905,8 +1048,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.91249999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="4">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -923,8 +1073,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.77500000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="4">
+        <v>92</v>
+      </c>
+      <c r="G16" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20010981</v>
       </c>
@@ -941,8 +1098,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="4">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20013614</v>
       </c>
@@ -959,8 +1123,15 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.86250000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="4">
+        <v>93</v>
+      </c>
+      <c r="G18" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -977,8 +1148,18 @@
         <f>Table2[[#This Row],[Midterm_1]]/40</f>
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="4">
+        <v>93</v>
+      </c>
+      <c r="G19" s="3">
+        <f>Table2[[#This Row],[Midterm_2]]/100</f>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>49</v>
       </c>
@@ -990,8 +1171,16 @@
         <f>AVERAGE(Table2[[#All],[Midterm_1_pct]])</f>
         <v>0.91111111111111098</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="4">
+        <f>AVERAGE(Table2[[#All],[Midterm_2]])</f>
+        <v>87.972222222222229</v>
+      </c>
+      <c r="G21" s="2">
+        <f>AVERAGE(Table2[[#All],[Midterm_2_pct]])</f>
+        <v>0.87972222222222218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>50</v>
       </c>
@@ -1003,8 +1192,16 @@
         <f>STDEV(Table2[Midterm_1_pct])</f>
         <v>8.2681272428872993E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="4">
+        <f>STDEV(Table2[Midterm_2])</f>
+        <v>23.146891687033111</v>
+      </c>
+      <c r="G22" s="2">
+        <f>STDEV(Table2[Midterm_2_pct])</f>
+        <v>0.23146891687033136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>51</v>
       </c>
@@ -1016,8 +1213,16 @@
         <f>MAX(Table2[Midterm_1_pct])</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="4">
+        <f>MAX(Table2[Midterm_2])</f>
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <f>MAX(Table2[Midterm_2_pct])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>52</v>
       </c>
@@ -1029,8 +1234,16 @@
         <f>_xlfn.QUARTILE.INC(Table2[Midterm_1_pct],3)</f>
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="4">
+        <f>_xlfn.QUARTILE.INC(Table2[Midterm_2],3)</f>
+        <v>99.375</v>
+      </c>
+      <c r="G24" s="2">
+        <f>_xlfn.QUARTILE.INC(Table2[Midterm_2_pct],3)</f>
+        <v>0.99375000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -1042,8 +1255,16 @@
         <f>MEDIAN(Table2[Midterm_1_pct])</f>
         <v>0.93125000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="4">
+        <f>MEDIAN(Table2[Midterm_2])</f>
+        <v>94.5</v>
+      </c>
+      <c r="G25" s="2">
+        <f>MEDIAN(Table2[Midterm_2_pct])</f>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -1055,8 +1276,16 @@
         <f>_xlfn.QUARTILE.INC(Table2[Midterm_1_pct],1)</f>
         <v>0.88124999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="4">
+        <f>_xlfn.QUARTILE.INC(Table2[Midterm_2],1)</f>
+        <v>86.75</v>
+      </c>
+      <c r="G26" s="2">
+        <f>_xlfn.QUARTILE.INC(Table2[Midterm_2_pct],1)</f>
+        <v>0.86749999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>55</v>
       </c>
@@ -1068,8 +1297,16 @@
         <f>MIN(Table2[Midterm_1_pct])</f>
         <v>0.66249999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="4">
+        <f>MIN(Table2[Midterm_2])</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <f>MIN(Table2[Midterm_2_pct])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>56</v>
       </c>
@@ -1081,21 +1318,30 @@
         <f>COUNTIF(Table2[Midterm_1_pct],"=NA")</f>
         <v>0</v>
       </c>
+      <c r="F28" s="4">
+        <f>COUNTIF(Table2[Midterm_2],"=NA")</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(Table2[Midterm_2_pct],"=NA")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>37</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
       <formula>34</formula>
       <formula>36.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>28</formula>
       <formula>33.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
